--- a/test.xlsx
+++ b/test.xlsx
@@ -3,10 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Cartes" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuille" sheetId="1" r:id="rId1"/>
     <sheet name="Cartes2" sheetId="2" r:id="rId2"/>
     <sheet name="09_03_2025" sheetId="3" r:id="rId3"/>
     <sheet name="10_03_2025" sheetId="4" r:id="rId4"/>
+    <sheet name="11_03_2025" sheetId="5" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -1727,9 +1728,6 @@
       <c r="F19" t="str">
         <v>error</v>
       </c>
-      <c r="G19" t="str">
-        <v/>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -1828,7 +1826,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Reverse World's Giratina Lv.60</v>
+        <v>Reverse World&amp;apos;s Giratina Lv.60</v>
       </c>
       <c r="B3" t="str">
         <v>005/009</v>
@@ -1851,7 +1849,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Icy Sky's Shaymin Lv.62</v>
+        <v>Icy Sky&amp;apos;s Shaymin Lv.62</v>
       </c>
       <c r="B4" t="str">
         <v>001/009</v>
@@ -1897,10 +1895,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Alto Mare's Latias</v>
-      </c>
-      <c r="B6" t="str">
-        <v/>
+        <v>Alto Mare&amp;apos;s Latias</v>
       </c>
       <c r="C6" t="str">
         <v>10M</v>
@@ -1920,10 +1915,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Alto Mare's Latios</v>
-      </c>
-      <c r="B7" t="str">
-        <v/>
+        <v>Alto Mare&amp;apos;s Latios</v>
       </c>
       <c r="C7" t="str">
         <v>10M</v>
@@ -2083,9 +2075,6 @@
       <c r="A14" t="str">
         <v>Créfollet Lv.X</v>
       </c>
-      <c r="B14" t="str">
-        <v/>
-      </c>
       <c r="C14" t="str">
         <v>DP5c</v>
       </c>
@@ -2175,9 +2164,6 @@
       <c r="A18" t="str">
         <v>Energie combat</v>
       </c>
-      <c r="B18" t="str">
-        <v/>
-      </c>
       <c r="C18" t="str">
         <v>L1HG</v>
       </c>
@@ -2198,9 +2184,6 @@
       <c r="A19" t="str">
         <v>Energie acier</v>
       </c>
-      <c r="B19" t="str">
-        <v/>
-      </c>
       <c r="C19" t="str">
         <v>L1HG</v>
       </c>
@@ -2221,9 +2204,6 @@
       <c r="A20" t="str">
         <v>énergie combat</v>
       </c>
-      <c r="B20" t="str">
-        <v/>
-      </c>
       <c r="C20" t="str">
         <v>L1HG</v>
       </c>
@@ -2244,9 +2224,6 @@
       <c r="A21" t="str">
         <v>Energie Obscurité</v>
       </c>
-      <c r="B21" t="str">
-        <v/>
-      </c>
       <c r="C21" t="str">
         <v>L1HG</v>
       </c>
@@ -2264,6 +2241,484 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G21"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Nom</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Numéro</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Série</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Langue</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Etat</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Url</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Prix moyen</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Noctali V</v>
+      </c>
+      <c r="B2" t="str">
+        <v>85/69</v>
+      </c>
+      <c r="C2" t="str">
+        <v>S6A</v>
+      </c>
+      <c r="D2" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E2" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F2" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Eevee-Heroes/Umbreon-V-V3-s6a085?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G2">
+        <v>227.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Reverse World&amp;apos;s Giratina Lv.60</v>
+      </c>
+      <c r="B3" t="str">
+        <v>005/009</v>
+      </c>
+      <c r="C3" t="str">
+        <v>11M</v>
+      </c>
+      <c r="D3" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E3" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F3" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/11th-Movie-Commemoration-Set/Reverse-Worlds-Giratina-Lv60?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=Y</v>
+      </c>
+      <c r="G3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Icy Sky&amp;apos;s Shaymin Lv.62</v>
+      </c>
+      <c r="B4" t="str">
+        <v>001/009</v>
+      </c>
+      <c r="C4" t="str">
+        <v>11M</v>
+      </c>
+      <c r="D4" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E4" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F4" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/11th-Movie-Commemoration-Set/Icy-Skys-Shaymin-Lv62-11M001?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G4">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Magnézone Lv.53</v>
+      </c>
+      <c r="B5" t="str">
+        <v>004/009</v>
+      </c>
+      <c r="C5" t="str">
+        <v>11M</v>
+      </c>
+      <c r="D5" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E5" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F5" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/11th-Movie-Commemoration-Set/Magnezone-Lv53?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G5">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Alto Mare&amp;apos;s Latias</v>
+      </c>
+      <c r="C6" t="str">
+        <v>10M</v>
+      </c>
+      <c r="D6" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E6" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F6" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/10th-Movie-Commemoration-Set/Alto-Mares-Latias?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G6">
+        <v>26.63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Alto Mare&amp;apos;s Latios</v>
+      </c>
+      <c r="C7" t="str">
+        <v>10M</v>
+      </c>
+      <c r="D7" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E7" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F7" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/10th-Movie-Commemoration-Set/Alto-Mares-Latios?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G7">
+        <v>17.49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Altération espace-temps</v>
+      </c>
+      <c r="B8" t="str">
+        <v>012/012</v>
+      </c>
+      <c r="C8" t="str">
+        <v>PtS</v>
+      </c>
+      <c r="D8" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E8" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F8" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shaymin-LVX-Collection-Pack/Time-Space-Distortion-PtS012?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G8">
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Zorua (masterball)</v>
+      </c>
+      <c r="B9" t="str">
+        <v>096/187</v>
+      </c>
+      <c r="C9" t="str">
+        <v>SV8a</v>
+      </c>
+      <c r="D9" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E9" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F9" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Zorua-sv8a096?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=Y</v>
+      </c>
+      <c r="G9">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Natu (pokeball)</v>
+      </c>
+      <c r="B10" t="str">
+        <v>060/187</v>
+      </c>
+      <c r="C10" t="str">
+        <v>SV8a</v>
+      </c>
+      <c r="D10" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E10" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F10" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Natu-sv8a060?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=Y</v>
+      </c>
+      <c r="G10">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Théffroyable (pokeball)</v>
+      </c>
+      <c r="B11" t="str">
+        <v>018/187</v>
+      </c>
+      <c r="C11" t="str">
+        <v>SV8a</v>
+      </c>
+      <c r="D11" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E11" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F11" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Sinistcha-sv8a018?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=Y</v>
+      </c>
+      <c r="G11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Zone de Neutralisation</v>
+      </c>
+      <c r="B12" t="str">
+        <v>184/187</v>
+      </c>
+      <c r="C12" t="str">
+        <v>SV8a</v>
+      </c>
+      <c r="D12" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E12" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F12" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Neutralization-Zone-sv8a184?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G12">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Chef-de-Fer Ex</v>
+      </c>
+      <c r="B13" t="str">
+        <v>078/187</v>
+      </c>
+      <c r="C13" t="str">
+        <v>SV8a</v>
+      </c>
+      <c r="D13" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E13" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F13" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Iron-Crown-ex-V1-sv8a078?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G13">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Créfollet Lv.X</v>
+      </c>
+      <c r="C14" t="str">
+        <v>DP5c</v>
+      </c>
+      <c r="D14" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E14" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F14" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Cry-from-the-Mysterious/Mesprit-LVX-DP5c?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G14">
+        <v>27.52</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Magirêve Lv.X</v>
+      </c>
+      <c r="B15" t="str">
+        <v>011/DP-P</v>
+      </c>
+      <c r="C15" t="str">
+        <v>DPt-P</v>
+      </c>
+      <c r="D15" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E15" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F15" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/DPt-Promos/Mismagius-GL-LVX-DPt-P011?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Magirêve  [GL] Lv.26</v>
+      </c>
+      <c r="B16" t="str">
+        <v>046/090</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Pt2</v>
+      </c>
+      <c r="D16" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E16" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F16" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Bonds-to-the-End-of-Time/Mismagius-GL-Lv26-Pt2046?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G16">
+        <v>8.12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Musteboué [GL] Lv.37</v>
+      </c>
+      <c r="B17" t="str">
+        <v>019/090</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Pt2</v>
+      </c>
+      <c r="D17" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E17" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F17" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Bonds-to-the-End-of-Time/Floatzel-GL-Lv37-Pt2019?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G17">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Energie combat</v>
+      </c>
+      <c r="C18" t="str">
+        <v>L1HG</v>
+      </c>
+      <c r="D18" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E18" t="str">
+        <v>EX</v>
+      </c>
+      <c r="F18" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/HeartGold-Collection/Fighting-Energy-L1HG?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G18">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Energie acier</v>
+      </c>
+      <c r="C19" t="str">
+        <v>L1HG</v>
+      </c>
+      <c r="D19" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E19" t="str">
+        <v>EX</v>
+      </c>
+      <c r="F19" t="str">
+        <v>error</v>
+      </c>
+      <c r="G19" t="str">
+        <v>error</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>énergie combat</v>
+      </c>
+      <c r="C20" t="str">
+        <v>L1HG</v>
+      </c>
+      <c r="D20" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E20" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F20" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/HeartGold-Collection/Fighting-Energy-L1HG?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Energie Obscurité</v>
+      </c>
+      <c r="C21" t="str">
+        <v>L1HG</v>
+      </c>
+      <c r="D21" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E21" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F21" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/HeartGold-Collection/Darkness-Energy-L1HG?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G21">
+        <v>15.96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A1:G21"/>
   </ignoredErrors>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,6 +8,7 @@
     <sheet name="09_03_2025" sheetId="3" r:id="rId3"/>
     <sheet name="10_03_2025" sheetId="4" r:id="rId4"/>
     <sheet name="11_03_2025" sheetId="5" r:id="rId5"/>
+    <sheet name="12_03_2025" sheetId="6" r:id="rId6"/>
   </sheets>
 </workbook>
 </file>
@@ -2297,9 +2298,6 @@
       <c r="F2" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Eevee-Heroes/Umbreon-V-V3-s6a085?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
-      <c r="G2">
-        <v>227.62</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -2320,9 +2318,6 @@
       <c r="F3" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/11th-Movie-Commemoration-Set/Reverse-Worlds-Giratina-Lv60?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=Y</v>
       </c>
-      <c r="G3">
-        <v>48</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -2343,9 +2338,6 @@
       <c r="F4" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/11th-Movie-Commemoration-Set/Icy-Skys-Shaymin-Lv62-11M001?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
-      <c r="G4">
-        <v>6.95</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -2366,9 +2358,6 @@
       <c r="F5" t="str">
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/11th-Movie-Commemoration-Set/Magnezone-Lv53?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
-      <c r="G5">
-        <v>1.96</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -2388,6 +2377,483 @@
       </c>
       <c r="G6">
         <v>26.63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Alto Mare&amp;apos;s Latios</v>
+      </c>
+      <c r="C7" t="str">
+        <v>10M</v>
+      </c>
+      <c r="D7" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E7" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F7" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/10th-Movie-Commemoration-Set/Alto-Mares-Latios?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G7">
+        <v>17.49</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Altération espace-temps</v>
+      </c>
+      <c r="B8" t="str">
+        <v>012/012</v>
+      </c>
+      <c r="C8" t="str">
+        <v>PtS</v>
+      </c>
+      <c r="D8" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E8" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F8" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shaymin-LVX-Collection-Pack/Time-Space-Distortion-PtS012?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G8">
+        <v>8.58</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Zorua (masterball)</v>
+      </c>
+      <c r="B9" t="str">
+        <v>096/187</v>
+      </c>
+      <c r="C9" t="str">
+        <v>SV8a</v>
+      </c>
+      <c r="D9" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E9" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F9" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Zorua-sv8a096?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=Y</v>
+      </c>
+      <c r="G9">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Natu (pokeball)</v>
+      </c>
+      <c r="B10" t="str">
+        <v>060/187</v>
+      </c>
+      <c r="C10" t="str">
+        <v>SV8a</v>
+      </c>
+      <c r="D10" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E10" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F10" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Natu-sv8a060?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=Y</v>
+      </c>
+      <c r="G10">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Théffroyable (pokeball)</v>
+      </c>
+      <c r="B11" t="str">
+        <v>018/187</v>
+      </c>
+      <c r="C11" t="str">
+        <v>SV8a</v>
+      </c>
+      <c r="D11" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E11" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F11" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Sinistcha-sv8a018?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=Y</v>
+      </c>
+      <c r="G11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Zone de Neutralisation</v>
+      </c>
+      <c r="B12" t="str">
+        <v>184/187</v>
+      </c>
+      <c r="C12" t="str">
+        <v>SV8a</v>
+      </c>
+      <c r="D12" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E12" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F12" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Neutralization-Zone-sv8a184?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G12">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Chef-de-Fer Ex</v>
+      </c>
+      <c r="B13" t="str">
+        <v>078/187</v>
+      </c>
+      <c r="C13" t="str">
+        <v>SV8a</v>
+      </c>
+      <c r="D13" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E13" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F13" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Iron-Crown-ex-V1-sv8a078?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G13">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Créfollet Lv.X</v>
+      </c>
+      <c r="C14" t="str">
+        <v>DP5c</v>
+      </c>
+      <c r="D14" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E14" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F14" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Cry-from-the-Mysterious/Mesprit-LVX-DP5c?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G14">
+        <v>27.52</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Magirêve Lv.X</v>
+      </c>
+      <c r="B15" t="str">
+        <v>011/DP-P</v>
+      </c>
+      <c r="C15" t="str">
+        <v>DPt-P</v>
+      </c>
+      <c r="D15" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E15" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F15" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/DPt-Promos/Mismagius-GL-LVX-DPt-P011?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Magirêve  [GL] Lv.26</v>
+      </c>
+      <c r="B16" t="str">
+        <v>046/090</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Pt2</v>
+      </c>
+      <c r="D16" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E16" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F16" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Bonds-to-the-End-of-Time/Mismagius-GL-Lv26-Pt2046?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G16">
+        <v>8.12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Musteboué [GL] Lv.37</v>
+      </c>
+      <c r="B17" t="str">
+        <v>019/090</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Pt2</v>
+      </c>
+      <c r="D17" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E17" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F17" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Bonds-to-the-End-of-Time/Floatzel-GL-Lv37-Pt2019?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G17">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Energie combat</v>
+      </c>
+      <c r="C18" t="str">
+        <v>L1HG</v>
+      </c>
+      <c r="D18" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E18" t="str">
+        <v>EX</v>
+      </c>
+      <c r="F18" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/HeartGold-Collection/Fighting-Energy-L1HG?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G18">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Energie acier</v>
+      </c>
+      <c r="C19" t="str">
+        <v>L1HG</v>
+      </c>
+      <c r="D19" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E19" t="str">
+        <v>EX</v>
+      </c>
+      <c r="F19" t="str">
+        <v>error</v>
+      </c>
+      <c r="G19" t="str">
+        <v>error</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>énergie combat</v>
+      </c>
+      <c r="C20" t="str">
+        <v>L1HG</v>
+      </c>
+      <c r="D20" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E20" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F20" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/HeartGold-Collection/Fighting-Energy-L1HG?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Energie Obscurité</v>
+      </c>
+      <c r="C21" t="str">
+        <v>L1HG</v>
+      </c>
+      <c r="D21" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E21" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F21" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/HeartGold-Collection/Darkness-Energy-L1HG?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G21">
+        <v>15.96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G21"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Nom</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Numéro</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Série</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Langue</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Etat</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Url</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Prix moyen</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Noctali V</v>
+      </c>
+      <c r="B2" t="str">
+        <v>85/69</v>
+      </c>
+      <c r="C2" t="str">
+        <v>S6A</v>
+      </c>
+      <c r="D2" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E2" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F2" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Eevee-Heroes/Umbreon-V-V3-s6a085?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G2">
+        <v>227.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Reverse World&amp;apos;s Giratina Lv.60</v>
+      </c>
+      <c r="B3" t="str">
+        <v>005/009</v>
+      </c>
+      <c r="C3" t="str">
+        <v>11M</v>
+      </c>
+      <c r="D3" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E3" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F3" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/11th-Movie-Commemoration-Set/Reverse-Worlds-Giratina-Lv60?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=Y</v>
+      </c>
+      <c r="G3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Icy Sky&amp;apos;s Shaymin Lv.62</v>
+      </c>
+      <c r="B4" t="str">
+        <v>001/009</v>
+      </c>
+      <c r="C4" t="str">
+        <v>11M</v>
+      </c>
+      <c r="D4" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E4" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F4" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/11th-Movie-Commemoration-Set/Icy-Skys-Shaymin-Lv62-11M001?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G4">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Magnézone Lv.53</v>
+      </c>
+      <c r="B5" t="str">
+        <v>004/009</v>
+      </c>
+      <c r="C5" t="str">
+        <v>11M</v>
+      </c>
+      <c r="D5" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E5" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F5" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/11th-Movie-Commemoration-Set/Magnezone-Lv53?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G5">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Alto Mare&amp;apos;s Latias</v>
+      </c>
+      <c r="C6" t="str">
+        <v>10M</v>
+      </c>
+      <c r="D6" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E6" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F6" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/10th-Movie-Commemoration-Set/Alto-Mares-Latias?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+      <c r="G6">
+        <v>23.98</v>
       </c>
     </row>
     <row r="7">

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,8 @@
     <sheet name="09_03_2025" sheetId="3" r:id="rId3"/>
     <sheet name="10_03_2025" sheetId="4" r:id="rId4"/>
     <sheet name="11_03_2025" sheetId="5" r:id="rId5"/>
-    <sheet name="12_03_2025" sheetId="6" r:id="rId6"/>
+    <sheet name="7888" sheetId="6" r:id="rId6"/>
+    <sheet name="12_03_2025" sheetId="7" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
@@ -2833,7 +2834,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/11th-Movie-Commemoration-Set/Magnezone-Lv53?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G5">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="6">
@@ -2919,7 +2920,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Zorua-sv8a096?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=Y</v>
       </c>
       <c r="G9">
-        <v>3.76</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="10">
@@ -2965,7 +2966,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Sinistcha-sv8a018?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=Y</v>
       </c>
       <c r="G11">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12">
@@ -3031,7 +3032,7 @@
         <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Cry-from-the-Mysterious/Mesprit-LVX-DP5c?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
       </c>
       <c r="G14">
-        <v>27.52</v>
+        <v>27.51</v>
       </c>
     </row>
     <row r="15">
@@ -3189,4 +3190,441 @@
     <ignoredError numberStoredAsText="1" sqref="A1:G21"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Nom</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Numéro</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Série</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Langue</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Etat</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Url</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Prix moyen</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Noctali V</v>
+      </c>
+      <c r="B2" t="str">
+        <v>85/69</v>
+      </c>
+      <c r="C2" t="str">
+        <v>S6A</v>
+      </c>
+      <c r="D2" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E2" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F2" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Eevee-Heroes/Umbreon-V-V3-s6a085?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Reverse World's Giratina Lv.60</v>
+      </c>
+      <c r="B3" t="str">
+        <v>005/009</v>
+      </c>
+      <c r="C3" t="str">
+        <v>11M</v>
+      </c>
+      <c r="D3" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E3" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F3" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/11th-Movie-Commemoration-Set/Reverse-Worlds-Giratina-Lv60?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=Y</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Icy Sky's Shaymin Lv.62</v>
+      </c>
+      <c r="B4" t="str">
+        <v>001/009</v>
+      </c>
+      <c r="C4" t="str">
+        <v>11M</v>
+      </c>
+      <c r="D4" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E4" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F4" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/11th-Movie-Commemoration-Set/Icy-Skys-Shaymin-Lv62-11M001?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Magnézone Lv.53</v>
+      </c>
+      <c r="B5" t="str">
+        <v>004/009</v>
+      </c>
+      <c r="C5" t="str">
+        <v>11M</v>
+      </c>
+      <c r="D5" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E5" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F5" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/11th-Movie-Commemoration-Set/Magnezone-Lv53?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Alto Mare's Latias</v>
+      </c>
+      <c r="B6" t="str">
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <v>10M</v>
+      </c>
+      <c r="D6" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E6" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F6" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/10th-Movie-Commemoration-Set/Alto-Mares-Latias?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Alto Mare's Latios</v>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v>10M</v>
+      </c>
+      <c r="D7" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E7" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F7" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/10th-Movie-Commemoration-Set/Alto-Mares-Latios?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Altération espace-temps</v>
+      </c>
+      <c r="B8" t="str">
+        <v>012/012</v>
+      </c>
+      <c r="C8" t="str">
+        <v>PtS</v>
+      </c>
+      <c r="D8" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E8" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F8" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Shaymin-LVX-Collection-Pack/Time-Space-Distortion-PtS012?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Zorua (masterball)</v>
+      </c>
+      <c r="B9" t="str">
+        <v>096/187</v>
+      </c>
+      <c r="C9" t="str">
+        <v>SV8a</v>
+      </c>
+      <c r="D9" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E9" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F9" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Zorua-sv8a096?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=Y</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Natu (pokeball)</v>
+      </c>
+      <c r="B10" t="str">
+        <v>060/187</v>
+      </c>
+      <c r="C10" t="str">
+        <v>SV8a</v>
+      </c>
+      <c r="D10" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E10" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F10" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Natu-sv8a060?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=Y</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Théffroyable (pokeball)</v>
+      </c>
+      <c r="B11" t="str">
+        <v>018/187</v>
+      </c>
+      <c r="C11" t="str">
+        <v>SV8a</v>
+      </c>
+      <c r="D11" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E11" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F11" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Sinistcha-sv8a018?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=Y</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Zone de Neutralisation</v>
+      </c>
+      <c r="B12" t="str">
+        <v>184/187</v>
+      </c>
+      <c r="C12" t="str">
+        <v>SV8a</v>
+      </c>
+      <c r="D12" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E12" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F12" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Neutralization-Zone-sv8a184?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Chef-de-Fer Ex</v>
+      </c>
+      <c r="B13" t="str">
+        <v>078/187</v>
+      </c>
+      <c r="C13" t="str">
+        <v>SV8a</v>
+      </c>
+      <c r="D13" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E13" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F13" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Terastal-Festival-ex/Iron-Crown-ex-V1-sv8a078?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Créfollet Lv.X</v>
+      </c>
+      <c r="B14" t="str">
+        <v/>
+      </c>
+      <c r="C14" t="str">
+        <v>DP5c</v>
+      </c>
+      <c r="D14" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E14" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F14" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Cry-from-the-Mysterious/Mesprit-LVX-DP5c?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Magirêve Lv.X</v>
+      </c>
+      <c r="B15" t="str">
+        <v>011/DP-P</v>
+      </c>
+      <c r="C15" t="str">
+        <v>DPt-P</v>
+      </c>
+      <c r="D15" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E15" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F15" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/DPt-Promos/Mismagius-GL-LVX-DPt-P011?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Magirêve  [GL] Lv.26</v>
+      </c>
+      <c r="B16" t="str">
+        <v>046/090</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Pt2</v>
+      </c>
+      <c r="D16" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E16" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F16" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Bonds-to-the-End-of-Time/Mismagius-GL-Lv26-Pt2046?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Musteboué [GL] Lv.37</v>
+      </c>
+      <c r="B17" t="str">
+        <v>019/090</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Pt2</v>
+      </c>
+      <c r="D17" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E17" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F17" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/Bonds-to-the-End-of-Time/Floatzel-GL-Lv37-Pt2019?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Energie combat</v>
+      </c>
+      <c r="B18" t="str">
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <v>L1HG</v>
+      </c>
+      <c r="D18" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E18" t="str">
+        <v>EX</v>
+      </c>
+      <c r="F18" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/HeartGold-Collection/Fighting-Energy-L1HG?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=3&amp;isReverseHolo=N</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Energie acier</v>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <v>L1HG</v>
+      </c>
+      <c r="D19" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E19" t="str">
+        <v>EX</v>
+      </c>
+      <c r="F19" t="str">
+        <v>error</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>énergie combat</v>
+      </c>
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <v>L1HG</v>
+      </c>
+      <c r="D20" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E20" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F20" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/HeartGold-Collection/Fighting-Energy-L1HG?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Energie Obscurité</v>
+      </c>
+      <c r="B21" t="str">
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <v>L1HG</v>
+      </c>
+      <c r="D21" t="str">
+        <v>JP</v>
+      </c>
+      <c r="E21" t="str">
+        <v>NM</v>
+      </c>
+      <c r="F21" t="str">
+        <v>https://www.cardmarket.com/fr/Pokemon/Products/Singles/HeartGold-Collection/Darkness-Energy-L1HG?isSigned=N&amp;isPlayset=N&amp;isAltered=N&amp;language=7&amp;minCondition=2&amp;isReverseHolo=N</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:G21"/>
+  </ignoredErrors>
+</worksheet>
 </file>